--- a/data_year/zb/教育/普通专科分学科学生数/普通专科分学科在校学生数.xlsx
+++ b/data_year/zb/教育/普通专科分学科学生数/普通专科分学科在校学生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -557,7 +557,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>100.9</v>
+        <v>966.2</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -573,157 +573,357 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>40.142</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.7928</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.6524</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17.2439</v>
+      </c>
+      <c r="F3" t="n">
+        <v>127.9609</v>
+      </c>
+      <c r="G3" t="n">
+        <v>86.3942</v>
+      </c>
+      <c r="H3" t="n">
+        <v>95.0137</v>
+      </c>
+      <c r="I3" t="n">
+        <v>52.4926</v>
+      </c>
+      <c r="J3" t="n">
+        <v>105.9178</v>
+      </c>
+      <c r="K3" t="n">
+        <v>32.3212</v>
+      </c>
       <c r="L3" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+        <v>958.9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>13.7167</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12.6758</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.5397</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>23.758</v>
+      </c>
+      <c r="R3" t="n">
+        <v>100.6014</v>
+      </c>
+      <c r="S3" t="n">
+        <v>46.3522</v>
+      </c>
+      <c r="T3" t="n">
+        <v>203.208</v>
+      </c>
+      <c r="U3" t="n">
+        <v>14.0031</v>
+      </c>
+      <c r="V3" t="n">
+        <v>17.8163</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>43.6213</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.711600000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.2359</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.9578</v>
+      </c>
+      <c r="F4" t="n">
+        <v>126.1946</v>
+      </c>
+      <c r="G4" t="n">
+        <v>92.5804</v>
+      </c>
+      <c r="H4" t="n">
+        <v>105.0469</v>
+      </c>
+      <c r="I4" t="n">
+        <v>52.3269</v>
+      </c>
+      <c r="J4" t="n">
+        <v>101.5735</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32.2801</v>
+      </c>
       <c r="L4" t="n">
-        <v>193.4</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+        <v>964.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13.1878</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.042</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11.9563</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.5583</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>22.6845</v>
+      </c>
+      <c r="R4" t="n">
+        <v>93.18470000000001</v>
+      </c>
+      <c r="S4" t="n">
+        <v>45.8232</v>
+      </c>
+      <c r="T4" t="n">
+        <v>206.1042</v>
+      </c>
+      <c r="U4" t="n">
+        <v>14.8207</v>
+      </c>
+      <c r="V4" t="n">
+        <v>16.6629</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>46.6262</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.6907</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.4675</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16.9938</v>
+      </c>
+      <c r="F5" t="n">
+        <v>124.2864</v>
+      </c>
+      <c r="G5" t="n">
+        <v>99.542</v>
+      </c>
+      <c r="H5" t="n">
+        <v>113.8612</v>
+      </c>
+      <c r="I5" t="n">
+        <v>52.1576</v>
+      </c>
+      <c r="J5" t="n">
+        <v>99.24169999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>32.092</v>
+      </c>
       <c r="L5" t="n">
-        <v>479.4</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+        <v>973.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12.5455</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.2744</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11.591</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.4913</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>21.7477</v>
+      </c>
+      <c r="R5" t="n">
+        <v>89.2212</v>
+      </c>
+      <c r="S5" t="n">
+        <v>45.703</v>
+      </c>
+      <c r="T5" t="n">
+        <v>207.8204</v>
+      </c>
+      <c r="U5" t="n">
+        <v>14.5409</v>
+      </c>
+      <c r="V5" t="n">
+        <v>15.9004</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50.7136</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.0812</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.393</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17.0247</v>
+      </c>
+      <c r="F6" t="n">
+        <v>129.1512</v>
+      </c>
+      <c r="G6" t="n">
+        <v>108.5522</v>
+      </c>
+      <c r="H6" t="n">
+        <v>120.0394</v>
+      </c>
+      <c r="I6" t="n">
+        <v>52.5662</v>
+      </c>
+      <c r="J6" t="n">
+        <v>101.2786</v>
+      </c>
+      <c r="K6" t="n">
+        <v>32.5576</v>
+      </c>
       <c r="L6" t="n">
-        <v>595.7</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+        <v>1006.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12.0998</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.4497</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11.0957</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.4671</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>21.1106</v>
+      </c>
+      <c r="R6" t="n">
+        <v>90.66670000000001</v>
+      </c>
+      <c r="S6" t="n">
+        <v>46.7176</v>
+      </c>
+      <c r="T6" t="n">
+        <v>213.8322</v>
+      </c>
+      <c r="U6" t="n">
+        <v>13.8748</v>
+      </c>
+      <c r="V6" t="n">
+        <v>15.5289</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>56.2145</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.4543</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.2747</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17.4872</v>
+      </c>
+      <c r="F7" t="n">
+        <v>135.9361</v>
+      </c>
+      <c r="G7" t="n">
+        <v>117.8214</v>
+      </c>
+      <c r="H7" t="n">
+        <v>118.1981</v>
+      </c>
+      <c r="I7" t="n">
+        <v>61.766</v>
+      </c>
+      <c r="J7" t="n">
+        <v>106.2055</v>
+      </c>
+      <c r="K7" t="n">
+        <v>32.9658</v>
+      </c>
       <c r="L7" t="n">
-        <v>713</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+        <v>1048.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12.1269</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.4672</v>
+      </c>
+      <c r="O7" t="n">
+        <v>10.7978</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.5208</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>21.2211</v>
+      </c>
+      <c r="R7" t="n">
+        <v>98.07989999999999</v>
+      </c>
+      <c r="S7" t="n">
+        <v>48.789</v>
+      </c>
+      <c r="T7" t="n">
+        <v>222.01</v>
+      </c>
+      <c r="U7" t="n">
+        <v>12.3797</v>
+      </c>
+      <c r="V7" t="n">
+        <v>15.662</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -737,7 +937,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>795.5</v>
+        <v>1082.9</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -753,7 +953,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -767,7 +967,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>860.6</v>
+        <v>1105</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -783,7 +983,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -797,7 +997,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>916.8</v>
+        <v>1133.7005</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -813,7 +1013,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -827,7 +1027,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>964.8</v>
+        <v>1280.7058</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -843,7 +1043,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -857,7 +1057,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>966.2</v>
+        <v>1459.5488</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -873,502 +1073,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>40.142</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.7928</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.6524</v>
-      </c>
-      <c r="E13" t="n">
-        <v>17.2439</v>
-      </c>
-      <c r="F13" t="n">
-        <v>127.9609</v>
-      </c>
-      <c r="G13" t="n">
-        <v>86.3942</v>
-      </c>
-      <c r="H13" t="n">
-        <v>95.0137</v>
-      </c>
-      <c r="I13" t="n">
-        <v>52.4926</v>
-      </c>
-      <c r="J13" t="n">
-        <v>105.9178</v>
-      </c>
-      <c r="K13" t="n">
-        <v>32.3212</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>958.9</v>
-      </c>
-      <c r="M13" t="n">
-        <v>13.7167</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="O13" t="n">
-        <v>12.6758</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.5397</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>23.758</v>
-      </c>
-      <c r="R13" t="n">
-        <v>100.6014</v>
-      </c>
-      <c r="S13" t="n">
-        <v>46.3522</v>
-      </c>
-      <c r="T13" t="n">
-        <v>203.208</v>
-      </c>
-      <c r="U13" t="n">
-        <v>14.0031</v>
-      </c>
-      <c r="V13" t="n">
-        <v>17.8163</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>43.6213</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9.711600000000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.2359</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16.9578</v>
-      </c>
-      <c r="F14" t="n">
-        <v>126.1946</v>
-      </c>
-      <c r="G14" t="n">
-        <v>92.5804</v>
-      </c>
-      <c r="H14" t="n">
-        <v>105.0469</v>
-      </c>
-      <c r="I14" t="n">
-        <v>52.3269</v>
-      </c>
-      <c r="J14" t="n">
-        <v>101.5735</v>
-      </c>
-      <c r="K14" t="n">
-        <v>32.2801</v>
-      </c>
-      <c r="L14" t="n">
-        <v>964.2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>13.1878</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.042</v>
-      </c>
-      <c r="O14" t="n">
-        <v>11.9563</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.5583</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>22.6845</v>
-      </c>
-      <c r="R14" t="n">
-        <v>93.18470000000001</v>
-      </c>
-      <c r="S14" t="n">
-        <v>45.8232</v>
-      </c>
-      <c r="T14" t="n">
-        <v>206.1042</v>
-      </c>
-      <c r="U14" t="n">
-        <v>14.8207</v>
-      </c>
-      <c r="V14" t="n">
-        <v>16.6629</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>46.6262</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9.6907</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.4675</v>
-      </c>
-      <c r="E15" t="n">
-        <v>16.9938</v>
-      </c>
-      <c r="F15" t="n">
-        <v>124.2864</v>
-      </c>
-      <c r="G15" t="n">
-        <v>99.542</v>
-      </c>
-      <c r="H15" t="n">
-        <v>113.8612</v>
-      </c>
-      <c r="I15" t="n">
-        <v>52.1576</v>
-      </c>
-      <c r="J15" t="n">
-        <v>99.24169999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>32.092</v>
-      </c>
-      <c r="L15" t="n">
-        <v>973.6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>12.5455</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.2744</v>
-      </c>
-      <c r="O15" t="n">
-        <v>11.591</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4.4913</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>21.7477</v>
-      </c>
-      <c r="R15" t="n">
-        <v>89.2212</v>
-      </c>
-      <c r="S15" t="n">
-        <v>45.703</v>
-      </c>
-      <c r="T15" t="n">
-        <v>207.8204</v>
-      </c>
-      <c r="U15" t="n">
-        <v>14.5409</v>
-      </c>
-      <c r="V15" t="n">
-        <v>15.9004</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>50.7136</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10.0812</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.393</v>
-      </c>
-      <c r="E16" t="n">
-        <v>17.0247</v>
-      </c>
-      <c r="F16" t="n">
-        <v>129.1512</v>
-      </c>
-      <c r="G16" t="n">
-        <v>108.5522</v>
-      </c>
-      <c r="H16" t="n">
-        <v>120.0394</v>
-      </c>
-      <c r="I16" t="n">
-        <v>52.5662</v>
-      </c>
-      <c r="J16" t="n">
-        <v>101.2786</v>
-      </c>
-      <c r="K16" t="n">
-        <v>32.5576</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1006.6</v>
-      </c>
-      <c r="M16" t="n">
-        <v>12.0998</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.4497</v>
-      </c>
-      <c r="O16" t="n">
-        <v>11.0957</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.4671</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>21.1106</v>
-      </c>
-      <c r="R16" t="n">
-        <v>90.66670000000001</v>
-      </c>
-      <c r="S16" t="n">
-        <v>46.7176</v>
-      </c>
-      <c r="T16" t="n">
-        <v>213.8322</v>
-      </c>
-      <c r="U16" t="n">
-        <v>13.8748</v>
-      </c>
-      <c r="V16" t="n">
-        <v>15.5289</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>56.2145</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10.4543</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.2747</v>
-      </c>
-      <c r="E17" t="n">
-        <v>17.4872</v>
-      </c>
-      <c r="F17" t="n">
-        <v>135.9361</v>
-      </c>
-      <c r="G17" t="n">
-        <v>117.8214</v>
-      </c>
-      <c r="H17" t="n">
-        <v>118.1981</v>
-      </c>
-      <c r="I17" t="n">
-        <v>61.766</v>
-      </c>
-      <c r="J17" t="n">
-        <v>106.2055</v>
-      </c>
-      <c r="K17" t="n">
-        <v>32.9658</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1048.6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>12.1269</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.4672</v>
-      </c>
-      <c r="O17" t="n">
-        <v>10.7978</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4.5208</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>21.2211</v>
-      </c>
-      <c r="R17" t="n">
-        <v>98.07989999999999</v>
-      </c>
-      <c r="S17" t="n">
-        <v>48.789</v>
-      </c>
-      <c r="T17" t="n">
-        <v>222.01</v>
-      </c>
-      <c r="U17" t="n">
-        <v>12.3797</v>
-      </c>
-      <c r="V17" t="n">
-        <v>15.662</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1082.9</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1105</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1133.7005</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1280.7058</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1459.5488</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+        <v>1590.0966</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
